--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809033.0548394554</v>
+        <v>835732.1775350319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475533</v>
+        <v>7602841.820114837</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.837864219</v>
+        <v>4325347.669273167</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10639088.44197428</v>
+        <v>10273848.80191212</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>373.1964540713599</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>115.2511029009966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8.787420751036557</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>188.0372413736212</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>7.130758887765173</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>83.05725119224549</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>214.1092459873476</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W10" t="n">
-        <v>226.9736586744963</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>375.0576061540435</v>
       </c>
       <c r="G11" t="n">
         <v>411.4371413535349</v>
@@ -1426,19 +1426,19 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>172.6092645133898</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>131.6423078754599</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>68.58870696482212</v>
       </c>
       <c r="U13" t="n">
         <v>286.2244489913895</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>177.3849448476418</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>346.5301172380492</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
-        <v>18.1862431834474</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>82.97340479698312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2570059982656</v>
@@ -1785,7 +1785,7 @@
         <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521084</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>88.5753463122937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>369.806163072354</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>102.5828468654734</v>
       </c>
       <c r="X19" t="n">
-        <v>181.4357613366571</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873199</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>11.46081191750545</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>161.6219306612231</v>
       </c>
       <c r="V22" t="n">
-        <v>46.63843252358382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>71.82728187716262</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.1838575377001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>67.7506066743337</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -3003,22 +3003,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>171.5112152512263</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>205.2445507820713</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>72.89138480951671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.4863062208196</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>131.3542190999263</v>
+        <v>177.4507143278946</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>80.71606764504763</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.11423043338358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>125.2319874488153</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.36325105336263</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>133.1027370193841</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.34924850973012</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>430.9090970439603</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2580.733835562671</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2326.972050200762</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.909162857192</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.909162857192</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.909162857192</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.583954036491</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.62143709608</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1338.355738489329</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2452.183794100613</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2452.183794100613</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2452.183794100613</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="X5" t="n">
-        <v>2452.183794100613</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y5" t="n">
-        <v>2452.183794100613</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4628,49 +4628,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4731,40 +4731,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>182.2302673832261</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>182.2302673832261</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>907.090798542223</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>548.8250999354725</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>548.8250999354725</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>137.8391951458649</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>137.8391951458649</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.909162857192</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857192</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,40 +4886,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1607.750174231412</v>
+        <v>1603.132890255564</v>
       </c>
       <c r="C11" t="n">
-        <v>1238.787657291</v>
+        <v>1234.170373315153</v>
       </c>
       <c r="D11" t="n">
-        <v>880.5219586842497</v>
+        <v>1234.170373315153</v>
       </c>
       <c r="E11" t="n">
-        <v>880.5219586842497</v>
+        <v>848.3821207169083</v>
       </c>
       <c r="F11" t="n">
         <v>469.5360538946421</v>
@@ -5044,16 +5044,16 @@
         <v>199.5143021373487</v>
       </c>
       <c r="K11" t="n">
-        <v>468.42649406655</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552604</v>
       </c>
       <c r="M11" t="n">
         <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>1738.603625623769</v>
       </c>
       <c r="O11" t="n">
         <v>2155.602766936376</v>
@@ -5074,19 +5074,19 @@
         <v>2366.737980492456</v>
       </c>
       <c r="U11" t="n">
-        <v>2113.16585401275</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="V11" t="n">
-        <v>1782.102966669179</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="W11" t="n">
-        <v>1607.750174231412</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="X11" t="n">
-        <v>1607.750174231412</v>
+        <v>1993.272222231376</v>
       </c>
       <c r="Y11" t="n">
-        <v>1607.750174231412</v>
+        <v>1603.132890255564</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>246.6565409677914</v>
       </c>
       <c r="K12" t="n">
-        <v>537.8115956207102</v>
+        <v>440.8349669871898</v>
       </c>
       <c r="L12" t="n">
-        <v>845.230993665082</v>
+        <v>1053.207508523572</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.331799318883</v>
+        <v>1431.308314177374</v>
       </c>
       <c r="N12" t="n">
-        <v>1625.848453140027</v>
+        <v>1833.824967998518</v>
       </c>
       <c r="O12" t="n">
-        <v>1971.85275817634</v>
+        <v>2179.829273034831</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.218651003075</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q12" t="n">
         <v>2560.986726597623</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.8346904700338</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="C13" t="n">
-        <v>498.8626623130036</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5226,25 +5226,25 @@
         <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302165</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T13" t="n">
-        <v>1465.051953754689</v>
+        <v>1422.779141441678</v>
       </c>
       <c r="U13" t="n">
-        <v>1175.936348712881</v>
+        <v>1133.66353639987</v>
       </c>
       <c r="V13" t="n">
-        <v>921.2518605069944</v>
+        <v>878.9790481939833</v>
       </c>
       <c r="W13" t="n">
-        <v>631.8346904700338</v>
+        <v>589.5618781570226</v>
       </c>
       <c r="X13" t="n">
-        <v>631.8346904700338</v>
+        <v>589.5618781570226</v>
       </c>
       <c r="Y13" t="n">
-        <v>631.8346904700338</v>
+        <v>368.7692990134926</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1607.750174231412</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="C14" t="n">
-        <v>1238.787657291</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="D14" t="n">
-        <v>880.5219586842497</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E14" t="n">
         <v>880.5219586842497</v>
       </c>
       <c r="F14" t="n">
-        <v>469.5360538946422</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373489</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665504</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552597</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M14" t="n">
         <v>1282.872051350724</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
         <v>2155.602766936376</v>
@@ -5302,28 +5302,28 @@
         <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2395.818038592542</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748109</v>
+        <v>2043.049383322428</v>
       </c>
       <c r="X14" t="n">
-        <v>1994.350014295534</v>
+        <v>2043.049383322428</v>
       </c>
       <c r="Y14" t="n">
-        <v>1994.350014295534</v>
+        <v>1652.910051346616</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1467531752639</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G15" t="n">
         <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>72.3129244299073</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>121.8264159807867</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0048420001853</v>
+        <v>456.3445161059918</v>
       </c>
       <c r="L15" t="n">
-        <v>623.4242400445572</v>
+        <v>763.7639141503636</v>
       </c>
       <c r="M15" t="n">
-        <v>1166.280567971507</v>
+        <v>1431.308314177374</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.824967998517</v>
+        <v>1833.824967998518</v>
       </c>
       <c r="O15" t="n">
-        <v>2179.82927303483</v>
+        <v>2179.829273034831</v>
       </c>
       <c r="P15" t="n">
         <v>2438.195165861565</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.377376515824</v>
+        <v>920.9502955118412</v>
       </c>
       <c r="C16" t="n">
-        <v>919.4411935879167</v>
+        <v>752.0141125839343</v>
       </c>
       <c r="D16" t="n">
-        <v>769.3245541755809</v>
+        <v>601.8974731715986</v>
       </c>
       <c r="E16" t="n">
-        <v>621.4114605931878</v>
+        <v>453.9843795892054</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5215130952774</v>
+        <v>370.1728595922528</v>
       </c>
       <c r="G16" t="n">
-        <v>306.5851434000597</v>
+        <v>202.236489897035</v>
       </c>
       <c r="H16" t="n">
-        <v>158.2916353233891</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485945</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866546</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282813</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732904</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606355</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
         <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.485439024175</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.485439024175</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.485439024175</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.485439024175</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.015392244081</v>
+        <v>1210.367465548802</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.015392244081</v>
+        <v>920.9502955118412</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.025841346063</v>
+        <v>920.9502955118412</v>
       </c>
       <c r="Y16" t="n">
-        <v>1270.025841346063</v>
+        <v>920.9502955118412</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>1266.310211282494</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>577.8254266426378</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>885.2448246870097</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1263.345630340811</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1665.862284161955</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2011.866589198268</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.5323180934831</v>
+        <v>984.0287230127989</v>
       </c>
       <c r="C19" t="n">
-        <v>657.5961351655762</v>
+        <v>815.092540084892</v>
       </c>
       <c r="D19" t="n">
-        <v>507.4794957532405</v>
+        <v>664.9759006725562</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>517.0628070901631</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>370.1728595922528</v>
       </c>
       <c r="G19" t="n">
-        <v>192.886711630049</v>
+        <v>202.236489897035</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898817</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.241807861856</v>
+        <v>1165.677187843039</v>
       </c>
       <c r="X19" t="n">
-        <v>1228.973362067253</v>
+        <v>1165.677187843039</v>
       </c>
       <c r="Y19" t="n">
-        <v>1008.180782923723</v>
+        <v>1165.677187843039</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>1238.787657291</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>1238.787657291</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870721</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>2355.161402798006</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>2002.392747527892</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>1628.926989266812</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>1238.787657291</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>316.0048420001851</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>983.5492420271951</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1361.650047680996</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1764.16670150214</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2110.171006538453</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2368.536899365188</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>1228.475234934999</v>
       </c>
       <c r="V22" t="n">
-        <v>1530.300614186275</v>
+        <v>973.7907467291122</v>
       </c>
       <c r="W22" t="n">
-        <v>1530.300614186275</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X22" t="n">
-        <v>1302.311063288258</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6007,19 +6007,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>559.5698019715163</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>411.6567083891232</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>411.6567083891232</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,28 +6226,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>647.5249577361934</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>478.5887748082865</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V28" t="n">
-        <v>1764.65758193153</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.093193329805</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>868.3175368797235</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>647.5249577361934</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,22 +6463,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107236</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.8063921226883</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>637.8063921226883</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>487.6897527103525</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7766591279594</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>192.886711630049</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>192.886711630049</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
         <v>192.886711630049</v>
@@ -6651,22 +6651,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1591.413930162615</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="V31" t="n">
-        <v>1268.236986994476</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="W31" t="n">
-        <v>1268.236986994476</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="X31" t="n">
-        <v>1040.247436096458</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y31" t="n">
-        <v>819.454856952928</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="32">
@@ -6679,67 +6679,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
         <v>3150.95552873011</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.811212990069</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6888,22 +6888,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1701.658977898817</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.241807861856</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.252256963839</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.4596778203087</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898817</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.241807861856</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>1279.560778467991</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.768199324461</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>729.2066409118285</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C40" t="n">
-        <v>560.2704579839216</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D40" t="n">
-        <v>410.1538185715858</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1538185715858</v>
+        <v>344.7952525333195</v>
       </c>
       <c r="F40" t="n">
         <v>263.2638710736754</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.57685067423</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.892362468343</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.475192431382</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>962.4856415333647</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y40" t="n">
-        <v>910.8551057420682</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7414,16 +7414,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>708.1835515663147</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>708.1835515663147</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1829.846509085698</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1540.743642211342</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>1540.743642211342</v>
       </c>
       <c r="W43" t="n">
-        <v>1190.789495593986</v>
+        <v>1251.326472174381</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.624595540085</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.8320163965544</v>
+        <v>1023.336921276364</v>
       </c>
     </row>
     <row r="44">
@@ -7630,22 +7630,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7666,19 +7666,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.0379765536123</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C46" t="n">
-        <v>528.0379765536123</v>
+        <v>322.7981269008616</v>
       </c>
       <c r="D46" t="n">
-        <v>377.9213371412766</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="E46" t="n">
-        <v>230.0082435588835</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>709.6864413838521</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.6864413838521</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>97.9561905389096</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>308.0334782747584</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>17.26494649393209</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>15.6662112311131</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>166.4197194678264</v>
+        <v>292.3672670436454</v>
       </c>
       <c r="N15" t="n">
-        <v>267.7047941473394</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393203</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>169.6592766025884</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>246.454569480844</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>363.7626282652911</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.36188534987653</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>285.6623071682315</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>146.0713065388574</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>231.5010718068634</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11071,10 +11071,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22552,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>40.58771594943505</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>101.1972174566612</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22722,7 +22722,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>147.3834680907586</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22752,10 +22752,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>63.18692613466811</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.1102098296478</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,16 +22998,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>98.70524268180415</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>240.8655215721117</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -23080,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>113.6430124827873</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W10" t="n">
-        <v>59.54933966209472</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>31.81843958766797</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>176.6317042040232</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>35.60451322316794</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>146.8105729959039</v>
@@ -23466,10 +23466,10 @@
         <v>99.32764374521086</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>151.9480871971795</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031652</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.1742023667267</v>
@@ -23554,16 +23554,16 @@
         <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>150.3673136224931</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23.20098344041986</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.44764322594813</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S16" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
-        <v>163.5622970115343</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>16.43177558369956</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>183.9401514711176</v>
       </c>
       <c r="X19" t="n">
-        <v>44.27389405238003</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>316.2914465526295</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>124.6025183301664</v>
       </c>
       <c r="V22" t="n">
-        <v>205.4992108002442</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.19852638186561</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.40079581439471</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.86486634387866</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>48.03773402494289</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>46.89309254175672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.03669211577141596</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>94.35543628911086</v>
+        <v>48.25894106114251</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>64.70498037788362</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.4704229187112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>94.31696182735394</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>146.3464043356745</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.31831100354711</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>89.67655974929811</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776028.9822512048</v>
+        <v>776028.9822512047</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>786989.6598734539</v>
+        <v>786989.659873454</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.6598734539</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1013531.16128487</v>
+        <v>786989.6598734538</v>
       </c>
     </row>
     <row r="9">
@@ -26316,46 +26316,46 @@
         <v>289152.6100157575</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
-        <v>312157.9037460884</v>
+        <v>312157.9037460883</v>
       </c>
       <c r="F2" t="n">
         <v>312157.9037460885</v>
       </c>
       <c r="G2" t="n">
-        <v>397081.786886983</v>
+        <v>312157.9037460886</v>
       </c>
       <c r="H2" t="n">
-        <v>397081.786886983</v>
+        <v>312157.9037460885</v>
       </c>
       <c r="I2" t="n">
         <v>397081.786886983</v>
       </c>
       <c r="J2" t="n">
-        <v>397081.7868869829</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="K2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="L2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="M2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="N2" t="n">
         <v>397081.7868869831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="M2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="N2" t="n">
-        <v>397081.786886983</v>
       </c>
       <c r="O2" t="n">
         <v>397081.7868869831</v>
       </c>
       <c r="P2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.7868869829</v>
       </c>
     </row>
     <row r="3">
@@ -26377,19 +26377,19 @@
         <v>469045.4557502363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762173</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>234848.6170503591</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873504</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>53660.56571087037</v>
       </c>
       <c r="D4" t="n">
-        <v>53660.56571087038</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
+        <v>7134.159330842214</v>
+      </c>
+      <c r="F4" t="n">
         <v>7134.159330842216</v>
       </c>
-      <c r="F4" t="n">
-        <v>7134.159330842205</v>
-      </c>
       <c r="G4" t="n">
+        <v>7134.159330842213</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7134.159330842218</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,16 +26481,16 @@
         <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879414</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,10 +26499,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-443403.3267188861</v>
+        <v>-437941.7543476488</v>
       </c>
       <c r="C6" t="n">
-        <v>146564.5524956583</v>
+        <v>152026.1248668957</v>
       </c>
       <c r="D6" t="n">
-        <v>146564.5524956584</v>
+        <v>152026.1248668958</v>
       </c>
       <c r="E6" t="n">
-        <v>-230898.6881630869</v>
+        <v>-226472.3540097146</v>
       </c>
       <c r="F6" t="n">
-        <v>238146.7675871492</v>
+        <v>242573.1017405219</v>
       </c>
       <c r="G6" t="n">
-        <v>36139.31595770234</v>
+        <v>242573.101740522</v>
       </c>
       <c r="H6" t="n">
-        <v>278406.7057339196</v>
+        <v>242573.1017405219</v>
       </c>
       <c r="I6" t="n">
-        <v>278406.7057339196</v>
+        <v>44162.84809559254</v>
       </c>
       <c r="J6" t="n">
-        <v>101983.4865413265</v>
+        <v>102588.2459533589</v>
       </c>
       <c r="K6" t="n">
-        <v>278406.7057339197</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="L6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="M6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="N6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459518</v>
       </c>
       <c r="O6" t="n">
-        <v>153213.8809465692</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="P6" t="n">
-        <v>278406.7057339196</v>
+        <v>279011.4651459516</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980346</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26801,13 +26801,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26971,16 +26971,16 @@
         <v>583.8233809809476</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.2096553952637</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>128.209655395264</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>520.2256578503743</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503743</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503743</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58853668998741</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
         <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206099</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411438</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717141</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105705</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047169</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728055</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333021</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.440897495997</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861148</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246319</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T14" t="n">
-        <v>16.92164719740461</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280109</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590635</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796768</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812346</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363778</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691388</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329288</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905496</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609225</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342645</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173925</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
         <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T15" t="n">
-        <v>8.33660485412258</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U15" t="n">
         <v>0.1360708082827408</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H16" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>52.14530795926392</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J16" t="n">
         <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>201.45617766608</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781748</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073723</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>265.345214292107</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662139</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182729</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
         <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195865</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279936</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09458036510144613</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>294.0960148009282</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L12" t="n">
-        <v>310.5246444892645</v>
+        <v>618.5581227640229</v>
       </c>
       <c r="M12" t="n">
         <v>381.9200057109103</v>
@@ -35509,7 +35509,7 @@
         <v>260.9756493199341</v>
       </c>
       <c r="Q12" t="n">
-        <v>334.10916726722</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939236</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>271.6284766961632</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017268</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832978</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N14" t="n">
-        <v>460.334923508126</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511187</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780325</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215476</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198267</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.56912541456791</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>196.1398242620188</v>
+        <v>211.8060354931317</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892646</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>548.3397251787369</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N15" t="n">
-        <v>674.2872727545557</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164781</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199342</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.031879531371</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898484</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K16" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692129</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713356</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
         <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831664</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.03458057320883</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>460.6050612745972</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>430.6349259225225</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N20" t="n">
-        <v>798.7564048937555</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>194.3937648812474</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>837.9641425811429</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>544.8332927582293</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>739.5540726950825</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37791,10 +37791,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
